--- a/results/linear.xlsx
+++ b/results/linear.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Person</t>
   </si>
@@ -31,7 +31,22 @@
     <t>loss</t>
   </si>
   <si>
+    <t>Fold</t>
+  </si>
+  <si>
     <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
   </si>
   <si>
     <t>mmidb</t>
@@ -392,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,22 +429,108 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9347826086956521</v>
+        <v>0.7964426877470356</v>
       </c>
       <c r="D2">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E2">
+        <v>0.4458910226821899</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.8418972332015811</v>
+      </c>
+      <c r="D3">
+        <v>0.8444444537162781</v>
+      </c>
+      <c r="E3">
+        <v>0.5330228805541992</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.9337944664031621</v>
+      </c>
+      <c r="D4">
         <v>0.9333333373069763</v>
       </c>
-      <c r="E2">
-        <v>0.1536500602960587</v>
+      <c r="E4">
+        <v>0.2464904934167862</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.8201581027667983</v>
+      </c>
+      <c r="D5">
+        <v>0.8222222328186035</v>
+      </c>
+      <c r="E5">
+        <v>0.5433863401412964</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.5922619047619048</v>
+      </c>
+      <c r="D6">
+        <v>0.5777778029441833</v>
+      </c>
+      <c r="E6">
+        <v>1.200882434844971</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
